--- a/dbadresses.xlsx
+++ b/dbadresses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REDCODE\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D56113C-57D5-4D64-97AB-E5995B4C863E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1684E873-36D0-4C2C-8982-8A94DAB525FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20475" yWindow="5145" windowWidth="21420" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Company name</t>
-  </si>
-  <si>
-    <t>Postal code</t>
   </si>
   <si>
     <t>Destination</t>
@@ -50,34 +47,28 @@
     <t>Discription</t>
   </si>
   <si>
-    <t>Aproved status</t>
-  </si>
-  <si>
     <t>KU</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Kobenhavns Universitet</t>
-  </si>
-  <si>
-    <t>Nørre Allé 51, Nørre Allé 53, Nørre Allé 55, Nørre Allé 59, Nørre Allé 63, Nørre Allé 69, Nørre Allé 71, Jagtvej 124, Jagtvej 128, Jagtvej 160, Jagtvej 162, Universitetsparken 1, Universitetsparken 2, Universitetsparken 4, Universitetsparken 5, Universitetsparken 13, Universitetsparken 15, Tagensvej 16, Tagensvej 16A, Ole Maaloes vej 5, Ole Maaløes Vej 5, Sigurdsgade 41, Blegdamsvej 17, Blegdamsvej 19</t>
-  </si>
-  <si>
-    <t>Nørre Allé 14, Nørre Allé 20, Nørre Allé 22, Blegdamsvej 3, Blegdamsvej 3b, Blegdamsvej 3c</t>
-  </si>
-  <si>
-    <t>Nørre Allé 14</t>
-  </si>
-  <si>
-    <t>Jagtvej 128</t>
   </si>
   <si>
     <t>Source</t>
   </si>
   <si>
     <t>Addresses</t>
+  </si>
+  <si>
+    <t>Nørre Allé 14, 2200; Nørre Allé 20, 2200; Nørre Allé 22, 2200; Blegdamsvej 3, 2200; Blegdamsvej 3b, 2200; Blegdamsvej 3c, 2200;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nørre Allé 51, 2200; Nørre Allé 53, 2200; Nørre Allé 55, 2200; Nørre Allé 59,  2200; Nørre Allé 63, 2200;  Nørre Allé 69, 2200;  Nørre Allé 71, 2200; Jagtvej 124, 2200; Jagtvej 128, 2200; Jagtvej 160, 2200; Jagtvej 162, 2200;  Universitetsparken 1, 2200;  Universitetsparken 2, 2200;  Universitetsparken 4, 2200;  Universitetsparken 5, 2200; Universitetsparken 13, 2200; Universitetsparken 15, 2200; Tagensvej 16, 2200; Tagensvej 16A, 2200; Ole Maaloes vej 5, 2200; Ole Maaløes Vej 5, 2200;  Sigurdsgade 41, 2200;  Blegdamsvej 17, 2200;  Blegdamsvej 19, 2200; </t>
+  </si>
+  <si>
+    <t>Nørre Allé 14, 2200</t>
+  </si>
+  <si>
+    <t>Jagtvej 128, 2200</t>
   </si>
 </sst>
 </file>
@@ -109,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -184,41 +175,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -558,7 +564,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:H9"/>
+      <selection activeCell="C9" sqref="C9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,373 +578,367 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="10" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>12</v>
+      <c r="B3" s="1"/>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="2">
-        <v>2200</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="2">
-        <v>2200</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="7"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="7"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="7"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="7"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="7"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="7"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="7"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="7"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="7"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="7"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="7"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="7"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="7"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="7"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="7"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
+  <mergeCells count="120">
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
@@ -949,24 +949,66 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dbadresses.xlsx
+++ b/dbadresses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REDCODE\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19976F83-97E4-4F64-9DAA-B8D69497BB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DCCD16-1BD2-4D26-87B6-18365A361110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="10125" windowWidth="32205" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9960" yWindow="5430" windowWidth="32205" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -349,8 +349,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -361,24 +379,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -717,7 +717,7 @@
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:H9"/>
+      <selection activeCell="G13" sqref="G13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,26 +733,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="9"/>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5"/>
+      <c r="J1" s="15"/>
       <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
@@ -761,48 +761,48 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="6"/>
+      <c r="J2" s="16"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="7" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="7"/>
       <c r="K3" s="3" t="s">
         <v>14</v>
       </c>
@@ -811,978 +811,763 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="275">
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I12:J12"/>
@@ -1807,24 +1592,239 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1" xr:uid="{713BABE4-324F-4146-96B9-781CC31B0300}"/>

--- a/dbadresses.xlsx
+++ b/dbadresses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REDCODE\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DCCD16-1BD2-4D26-87B6-18365A361110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EBED0C-24FF-4F42-BD6E-75CC7035D74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9960" yWindow="5430" windowWidth="32205" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>Destination</t>
   </si>
   <si>
-    <t>Discription</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>Emil Thomsen (PUD CG Routes)</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -349,26 +349,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -379,6 +361,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -717,7 +717,7 @@
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:H13"/>
+      <selection activeCell="G11" sqref="G11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,841 +733,1056 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="16"/>
       <c r="C1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="16"/>
+      <c r="I2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="6"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="7"/>
+      <c r="J4" s="4"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="275">
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I12:J12"/>
@@ -1592,239 +1807,24 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1" xr:uid="{713BABE4-324F-4146-96B9-781CC31B0300}"/>
